--- a/tests/results_tests/Estadisticos mensuales.xlsx
+++ b/tests/results_tests/Estadisticos mensuales.xlsx
@@ -570,215 +570,231 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>17.43</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>2.28</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.83</v>
+      </c>
       <c r="D2" t="n">
-        <v>16.81</v>
+        <v>3.9</v>
       </c>
       <c r="E2" t="n">
-        <v>16.48</v>
+        <v>3.41</v>
       </c>
       <c r="F2" t="n">
-        <v>16.71</v>
+        <v>0.26</v>
       </c>
       <c r="G2" t="n">
-        <v>16.26</v>
+        <v>2.52</v>
       </c>
       <c r="H2" t="n">
-        <v>16.68</v>
+        <v>4.22</v>
       </c>
       <c r="I2" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>2.07</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.88</v>
+      </c>
       <c r="K2" t="n">
-        <v>15.89</v>
+        <v>1.03</v>
       </c>
       <c r="L2" t="n">
-        <v>15.39</v>
+        <v>1.82</v>
       </c>
       <c r="M2" t="n">
-        <v>17.02</v>
+        <v>0.88</v>
       </c>
       <c r="N2" t="n">
-        <v>17.36</v>
+        <v>0.96</v>
       </c>
       <c r="O2" t="n">
-        <v>16.99</v>
+        <v>2.79</v>
       </c>
       <c r="P2" t="n">
-        <v>16.56</v>
+        <v>3.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>16.49</v>
+        <v>7.8</v>
       </c>
       <c r="R2" t="n">
-        <v>17</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
+        <v>2.44</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.16</v>
+      </c>
       <c r="T2" t="n">
-        <v>16.77</v>
+        <v>3.44</v>
       </c>
       <c r="U2" t="n">
-        <v>17.87</v>
+        <v>0.6</v>
       </c>
       <c r="V2" t="n">
-        <v>16.82</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
-        <v>16.95</v>
+        <v>5.61</v>
       </c>
       <c r="X2" t="n">
-        <v>17.73</v>
+        <v>0.85</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.54</v>
-      </c>
-      <c r="Z2" t="inlineStr"/>
+        <v>2.38</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>2.04</v>
+      </c>
       <c r="AA2" t="n">
-        <v>18.55</v>
+        <v>2</v>
       </c>
       <c r="AB2" t="n">
-        <v>16.92</v>
+        <v>2.26</v>
       </c>
       <c r="AC2" t="n">
-        <v>16.72</v>
+        <v>2.96</v>
       </c>
       <c r="AD2" t="n">
-        <v>17.3</v>
+        <v>0.8</v>
       </c>
       <c r="AE2" t="n">
-        <v>17.82</v>
+        <v>1.62</v>
       </c>
       <c r="AF2" t="n">
-        <v>17.01</v>
+        <v>2.46</v>
       </c>
       <c r="AG2" t="n">
-        <v>16.94</v>
+        <v>2.27</v>
       </c>
       <c r="AH2" t="n">
-        <v>15.39</v>
+        <v>0.26</v>
       </c>
       <c r="AI2" t="n">
-        <v>18.55</v>
+        <v>7.8</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16.69</v>
+        <v>1.67</v>
       </c>
       <c r="AK2" t="n">
-        <v>16.94</v>
+        <v>2.27</v>
       </c>
       <c r="AL2" t="n">
-        <v>17.41</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>1.62</v>
+      </c>
       <c r="C3" t="n">
-        <v>17.44</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>16.65</v>
+        <v>3.34</v>
       </c>
       <c r="E3" t="n">
-        <v>16.62</v>
+        <v>5.72</v>
       </c>
       <c r="F3" t="n">
-        <v>17.39</v>
+        <v>2.88</v>
       </c>
       <c r="G3" t="n">
-        <v>16.28</v>
+        <v>3.43</v>
       </c>
       <c r="H3" t="n">
-        <v>17.47</v>
+        <v>3.03</v>
       </c>
       <c r="I3" t="n">
-        <v>18.42</v>
+        <v>2.85</v>
       </c>
       <c r="J3" t="n">
-        <v>16.05</v>
+        <v>8.02</v>
       </c>
       <c r="K3" t="n">
-        <v>15.81</v>
+        <v>4.17</v>
       </c>
       <c r="L3" t="n">
-        <v>16.56</v>
+        <v>1.92</v>
       </c>
       <c r="M3" t="n">
-        <v>17.31</v>
+        <v>3.48</v>
       </c>
       <c r="N3" t="n">
-        <v>17.81</v>
+        <v>3.93</v>
       </c>
       <c r="O3" t="n">
-        <v>16.68</v>
+        <v>4.14</v>
       </c>
       <c r="P3" t="n">
-        <v>17.36</v>
+        <v>4.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>17.35</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
+        <v>0.78</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.62</v>
+      </c>
       <c r="S3" t="n">
-        <v>16.97</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
+        <v>2.89</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.69</v>
+      </c>
       <c r="U3" t="n">
-        <v>18.89</v>
+        <v>3.08</v>
       </c>
       <c r="V3" t="n">
-        <v>16.78</v>
+        <v>6.49</v>
       </c>
       <c r="W3" t="n">
-        <v>16.47</v>
+        <v>2.65</v>
       </c>
       <c r="X3" t="n">
-        <v>17.76</v>
+        <v>5.88</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.82</v>
-      </c>
-      <c r="Z3" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2.1</v>
+      </c>
       <c r="AA3" t="n">
-        <v>18.87</v>
+        <v>2.61</v>
       </c>
       <c r="AB3" t="n">
-        <v>17.41</v>
+        <v>3.39</v>
       </c>
       <c r="AC3" t="n">
-        <v>17.6</v>
+        <v>0.74</v>
       </c>
       <c r="AD3" t="n">
-        <v>18.29</v>
+        <v>4.4</v>
       </c>
       <c r="AE3" t="n">
-        <v>18.2</v>
+        <v>3.21</v>
       </c>
       <c r="AF3" t="n">
-        <v>17.32</v>
+        <v>3.47</v>
       </c>
       <c r="AG3" t="n">
-        <v>17.38</v>
+        <v>3.37</v>
       </c>
       <c r="AH3" t="n">
-        <v>15.81</v>
+        <v>0.62</v>
       </c>
       <c r="AI3" t="n">
-        <v>18.89</v>
+        <v>8.02</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16.65</v>
+        <v>2.7</v>
       </c>
       <c r="AK3" t="n">
-        <v>17.38</v>
+        <v>3.37</v>
       </c>
       <c r="AL3" t="n">
-        <v>17.8</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="4">
@@ -786,111 +802,115 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>17.35</v>
+        <v>5.13</v>
       </c>
       <c r="C4" t="n">
-        <v>18.53</v>
+        <v>3.33</v>
       </c>
       <c r="D4" t="n">
-        <v>16.52</v>
+        <v>4.59</v>
       </c>
       <c r="E4" t="n">
-        <v>16.83</v>
+        <v>5.7</v>
       </c>
       <c r="F4" t="n">
-        <v>17.65</v>
+        <v>7.66</v>
       </c>
       <c r="G4" t="n">
-        <v>16.3</v>
+        <v>5.17</v>
       </c>
       <c r="H4" t="n">
-        <v>18.02</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>18.37</v>
+        <v>4.63</v>
       </c>
       <c r="J4" t="n">
-        <v>16.57</v>
+        <v>6.75</v>
       </c>
       <c r="K4" t="n">
-        <v>16.1</v>
+        <v>6.89</v>
       </c>
       <c r="L4" t="n">
-        <v>16.28</v>
+        <v>3.12</v>
       </c>
       <c r="M4" t="n">
-        <v>17.2</v>
+        <v>7.04</v>
       </c>
       <c r="N4" t="n">
-        <v>17.13</v>
+        <v>3.24</v>
       </c>
       <c r="O4" t="n">
-        <v>17.7</v>
+        <v>4.47</v>
       </c>
       <c r="P4" t="n">
-        <v>17.41</v>
+        <v>3.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.81</v>
+        <v>9.5</v>
       </c>
       <c r="R4" t="n">
-        <v>16.59</v>
+        <v>3.89</v>
       </c>
       <c r="S4" t="n">
-        <v>16.81</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
+        <v>3.61</v>
+      </c>
+      <c r="T4" t="n">
+        <v>7.22</v>
+      </c>
       <c r="U4" t="n">
-        <v>18.54</v>
+        <v>3.13</v>
       </c>
       <c r="V4" t="n">
-        <v>16.37</v>
+        <v>6.17</v>
       </c>
       <c r="W4" t="n">
-        <v>17.47</v>
+        <v>4.37</v>
       </c>
       <c r="X4" t="n">
-        <v>17.62</v>
+        <v>5.23</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.59</v>
-      </c>
-      <c r="Z4" t="inlineStr"/>
+        <v>3.2</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>5.08</v>
+      </c>
       <c r="AA4" t="n">
-        <v>19.33</v>
+        <v>4.08</v>
       </c>
       <c r="AB4" t="n">
-        <v>17.38</v>
+        <v>7.27</v>
       </c>
       <c r="AC4" t="n">
-        <v>17.86</v>
+        <v>4.16</v>
       </c>
       <c r="AD4" t="n">
-        <v>18.22</v>
+        <v>8.82</v>
       </c>
       <c r="AE4" t="n">
-        <v>18.24</v>
+        <v>3.71</v>
       </c>
       <c r="AF4" t="n">
-        <v>17.39</v>
+        <v>5.13</v>
       </c>
       <c r="AG4" t="n">
-        <v>17.4</v>
+        <v>4.61</v>
       </c>
       <c r="AH4" t="n">
-        <v>16.1</v>
+        <v>3.12</v>
       </c>
       <c r="AI4" t="n">
-        <v>19.33</v>
+        <v>9.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>16.75</v>
+        <v>3.7</v>
       </c>
       <c r="AK4" t="n">
-        <v>17.4</v>
+        <v>4.61</v>
       </c>
       <c r="AL4" t="n">
-        <v>17.9</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="5">
@@ -898,113 +918,115 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.1</v>
+        <v>5.9</v>
       </c>
       <c r="C5" t="n">
-        <v>17.84</v>
+        <v>6.11</v>
       </c>
       <c r="D5" t="n">
-        <v>17.23</v>
+        <v>5.63</v>
       </c>
       <c r="E5" t="n">
-        <v>17.17</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>17.9</v>
+        <v>4.44</v>
       </c>
       <c r="G5" t="n">
-        <v>17.04</v>
+        <v>3.84</v>
       </c>
       <c r="H5" t="n">
-        <v>17.59</v>
+        <v>4.76</v>
       </c>
       <c r="I5" t="n">
-        <v>18.37</v>
+        <v>5.38</v>
       </c>
       <c r="J5" t="n">
-        <v>16.4</v>
+        <v>4.44</v>
       </c>
       <c r="K5" t="n">
-        <v>16.53</v>
+        <v>3.65</v>
       </c>
       <c r="L5" t="n">
-        <v>17.11</v>
+        <v>1.53</v>
       </c>
       <c r="M5" t="n">
-        <v>16.54</v>
+        <v>5.41</v>
       </c>
       <c r="N5" t="n">
-        <v>17.4</v>
+        <v>4.51</v>
       </c>
       <c r="O5" t="n">
-        <v>16.61</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="P5" t="n">
-        <v>17.59</v>
+        <v>5.53</v>
       </c>
       <c r="Q5" t="n">
-        <v>16.67</v>
+        <v>8.07</v>
       </c>
       <c r="R5" t="n">
-        <v>17.47</v>
+        <v>4.25</v>
       </c>
       <c r="S5" t="n">
-        <v>17.1</v>
+        <v>4.66</v>
       </c>
       <c r="T5" t="n">
-        <v>17.49</v>
+        <v>3.74</v>
       </c>
       <c r="U5" t="n">
-        <v>18.28</v>
+        <v>8.31</v>
       </c>
       <c r="V5" t="n">
-        <v>16.94</v>
+        <v>10.18</v>
       </c>
       <c r="W5" t="n">
-        <v>16.79</v>
+        <v>10.9</v>
       </c>
       <c r="X5" t="n">
-        <v>18.37</v>
+        <v>4.87</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.01</v>
-      </c>
-      <c r="Z5" t="inlineStr"/>
+        <v>4.95</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>5.04</v>
+      </c>
       <c r="AA5" t="n">
-        <v>18.47</v>
+        <v>6.17</v>
       </c>
       <c r="AB5" t="n">
-        <v>17.73</v>
+        <v>3.73</v>
       </c>
       <c r="AC5" t="n">
-        <v>16.87</v>
+        <v>6.62</v>
       </c>
       <c r="AD5" t="n">
-        <v>18.12</v>
+        <v>7.23</v>
       </c>
       <c r="AE5" t="n">
-        <v>18.67</v>
+        <v>4.71</v>
       </c>
       <c r="AF5" t="n">
-        <v>17.43</v>
+        <v>5.72</v>
       </c>
       <c r="AG5" t="n">
-        <v>17.4</v>
+        <v>5.21</v>
       </c>
       <c r="AH5" t="n">
-        <v>16.4</v>
+        <v>1.53</v>
       </c>
       <c r="AI5" t="n">
-        <v>18.67</v>
+        <v>10.9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16.94</v>
+        <v>4.46</v>
       </c>
       <c r="AK5" t="n">
-        <v>17.4</v>
+        <v>5.21</v>
       </c>
       <c r="AL5" t="n">
-        <v>17.9</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="6">
@@ -1012,221 +1034,231 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.67</v>
+        <v>4.99</v>
       </c>
       <c r="C6" t="n">
-        <v>17.64</v>
+        <v>4.37</v>
       </c>
       <c r="D6" t="n">
-        <v>17.29</v>
+        <v>5.02</v>
       </c>
       <c r="E6" t="n">
-        <v>17.52</v>
+        <v>3.75</v>
       </c>
       <c r="F6" t="n">
-        <v>17.82</v>
+        <v>2.72</v>
       </c>
       <c r="G6" t="n">
-        <v>16.78</v>
+        <v>4.74</v>
       </c>
       <c r="H6" t="n">
-        <v>17.84</v>
+        <v>2.59</v>
       </c>
       <c r="I6" t="n">
-        <v>17.68</v>
+        <v>6.36</v>
       </c>
       <c r="J6" t="n">
-        <v>16.66</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>16.08</v>
+        <v>4.68</v>
       </c>
       <c r="L6" t="n">
-        <v>17.11</v>
+        <v>3.12</v>
       </c>
       <c r="M6" t="n">
-        <v>17.22</v>
+        <v>5.22</v>
       </c>
       <c r="N6" t="n">
-        <v>17.77</v>
+        <v>1.62</v>
       </c>
       <c r="O6" t="n">
-        <v>17.01</v>
+        <v>5.45</v>
       </c>
       <c r="P6" t="n">
-        <v>17.39</v>
+        <v>4.26</v>
       </c>
       <c r="Q6" t="n">
-        <v>17.14</v>
+        <v>6.16</v>
       </c>
       <c r="R6" t="n">
-        <v>17.33</v>
+        <v>5.07</v>
       </c>
       <c r="S6" t="n">
-        <v>17.06</v>
+        <v>6.43</v>
       </c>
       <c r="T6" t="n">
-        <v>17.65</v>
-      </c>
-      <c r="U6" t="inlineStr"/>
+        <v>2.67</v>
+      </c>
+      <c r="U6" t="n">
+        <v>7.2</v>
+      </c>
       <c r="V6" t="n">
-        <v>17.31</v>
+        <v>6.01</v>
       </c>
       <c r="W6" t="n">
-        <v>17.58</v>
+        <v>3.62</v>
       </c>
       <c r="X6" t="n">
-        <v>17.63</v>
+        <v>6.11</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.71</v>
-      </c>
-      <c r="Z6" t="inlineStr"/>
+        <v>4.79</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.68</v>
+      </c>
       <c r="AA6" t="n">
-        <v>18.59</v>
+        <v>3.46</v>
       </c>
       <c r="AB6" t="n">
-        <v>17.72</v>
+        <v>6.22</v>
       </c>
       <c r="AC6" t="n">
-        <v>17.29</v>
+        <v>6.27</v>
       </c>
       <c r="AD6" t="n">
-        <v>17.79</v>
+        <v>4.09</v>
       </c>
       <c r="AE6" t="n">
-        <v>18.74</v>
+        <v>2.51</v>
       </c>
       <c r="AF6" t="n">
-        <v>17.46</v>
+        <v>4.48</v>
       </c>
       <c r="AG6" t="n">
-        <v>17.55</v>
+        <v>4.71</v>
       </c>
       <c r="AH6" t="n">
-        <v>16.08</v>
+        <v>1.62</v>
       </c>
       <c r="AI6" t="n">
-        <v>18.74</v>
+        <v>7.2</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17.2</v>
+        <v>3.26</v>
       </c>
       <c r="AK6" t="n">
-        <v>17.55</v>
+        <v>4.71</v>
       </c>
       <c r="AL6" t="n">
-        <v>17.71</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>2.05</v>
+      </c>
       <c r="C7" t="n">
-        <v>17.48</v>
+        <v>1.25</v>
       </c>
       <c r="D7" t="n">
-        <v>17.77</v>
+        <v>0.76</v>
       </c>
       <c r="E7" t="n">
-        <v>17.07</v>
+        <v>2.57</v>
       </c>
       <c r="F7" t="n">
-        <v>17.82</v>
+        <v>3.43</v>
       </c>
       <c r="G7" t="n">
-        <v>16.81</v>
+        <v>3.42</v>
       </c>
       <c r="H7" t="n">
-        <v>16.83</v>
+        <v>2.06</v>
       </c>
       <c r="I7" t="n">
-        <v>17.45</v>
+        <v>1.63</v>
       </c>
       <c r="J7" t="n">
-        <v>16.41</v>
+        <v>3.11</v>
       </c>
       <c r="K7" t="n">
-        <v>16.34</v>
+        <v>3.19</v>
       </c>
       <c r="L7" t="n">
-        <v>16.58</v>
+        <v>1.77</v>
       </c>
       <c r="M7" t="n">
-        <v>16.78</v>
+        <v>2.74</v>
       </c>
       <c r="N7" t="n">
-        <v>16.81</v>
+        <v>2.01</v>
       </c>
       <c r="O7" t="n">
-        <v>16.79</v>
+        <v>0.84</v>
       </c>
       <c r="P7" t="n">
-        <v>17.74</v>
+        <v>1.02</v>
       </c>
       <c r="Q7" t="n">
-        <v>16.98</v>
+        <v>3.37</v>
       </c>
       <c r="R7" t="n">
-        <v>16.81</v>
+        <v>1.55</v>
       </c>
       <c r="S7" t="n">
-        <v>16.84</v>
+        <v>3.13</v>
       </c>
       <c r="T7" t="n">
-        <v>17.73</v>
-      </c>
-      <c r="U7" t="inlineStr"/>
+        <v>2.69</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3.6</v>
+      </c>
       <c r="V7" t="n">
-        <v>17.11</v>
+        <v>2.73</v>
       </c>
       <c r="W7" t="n">
-        <v>17.29</v>
+        <v>1.39</v>
       </c>
       <c r="X7" t="n">
-        <v>17.88</v>
+        <v>0.84</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.65</v>
-      </c>
-      <c r="Z7" t="inlineStr"/>
+        <v>0.73</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.43</v>
+      </c>
       <c r="AA7" t="n">
-        <v>17.64</v>
+        <v>1.09</v>
       </c>
       <c r="AB7" t="n">
-        <v>17.35</v>
+        <v>4.79</v>
       </c>
       <c r="AC7" t="n">
-        <v>17.06</v>
+        <v>1.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>17.98</v>
+        <v>1.24</v>
       </c>
       <c r="AE7" t="n">
-        <v>17.74</v>
+        <v>2.09</v>
       </c>
       <c r="AF7" t="n">
-        <v>17.21</v>
+        <v>2.12</v>
       </c>
       <c r="AG7" t="n">
-        <v>17.11</v>
+        <v>2.03</v>
       </c>
       <c r="AH7" t="n">
-        <v>16.34</v>
+        <v>0.73</v>
       </c>
       <c r="AI7" t="n">
-        <v>17.98</v>
+        <v>4.79</v>
       </c>
       <c r="AJ7" t="n">
-        <v>16.81</v>
+        <v>1.24</v>
       </c>
       <c r="AK7" t="n">
-        <v>17.11</v>
+        <v>2.03</v>
       </c>
       <c r="AL7" t="n">
-        <v>17.69</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="8">
@@ -1234,109 +1266,115 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.56</v>
+        <v>1.11</v>
       </c>
       <c r="C8" t="n">
-        <v>16.84</v>
+        <v>1.11</v>
       </c>
       <c r="D8" t="n">
-        <v>16.79</v>
+        <v>1.91</v>
       </c>
       <c r="E8" t="n">
-        <v>16.8</v>
+        <v>0.72</v>
       </c>
       <c r="F8" t="n">
-        <v>17.06</v>
+        <v>2.75</v>
       </c>
       <c r="G8" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
+        <v>2.81</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.67</v>
+      </c>
       <c r="I8" t="n">
-        <v>16.87</v>
+        <v>2.27</v>
       </c>
       <c r="J8" t="n">
-        <v>16.39</v>
+        <v>1.74</v>
       </c>
       <c r="K8" t="n">
-        <v>16.32</v>
+        <v>2.14</v>
       </c>
       <c r="L8" t="n">
-        <v>16.36</v>
+        <v>1.41</v>
       </c>
       <c r="M8" t="n">
-        <v>16.45</v>
+        <v>1.81</v>
       </c>
       <c r="N8" t="n">
-        <v>17.05</v>
+        <v>1.3</v>
       </c>
       <c r="O8" t="n">
-        <v>16.6</v>
+        <v>2.32</v>
       </c>
       <c r="P8" t="n">
-        <v>17.48</v>
+        <v>1.83</v>
       </c>
       <c r="Q8" t="n">
-        <v>16.99</v>
+        <v>1.04</v>
       </c>
       <c r="R8" t="n">
-        <v>16.9</v>
+        <v>2.57</v>
       </c>
       <c r="S8" t="n">
-        <v>16.42</v>
+        <v>1.99</v>
       </c>
       <c r="T8" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="U8" t="inlineStr"/>
+        <v>0.55</v>
+      </c>
+      <c r="U8" t="n">
+        <v>5.74</v>
+      </c>
       <c r="V8" t="n">
-        <v>17.21</v>
+        <v>3.22</v>
       </c>
       <c r="W8" t="n">
-        <v>17.02</v>
+        <v>1.96</v>
       </c>
       <c r="X8" t="n">
-        <v>17.06</v>
+        <v>1.61</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.58</v>
-      </c>
-      <c r="Z8" t="inlineStr"/>
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.86</v>
+      </c>
       <c r="AA8" t="n">
-        <v>17.44</v>
+        <v>1.43</v>
       </c>
       <c r="AB8" t="n">
-        <v>17.72</v>
+        <v>0.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>17.26</v>
+        <v>0.99</v>
       </c>
       <c r="AD8" t="n">
-        <v>17.68</v>
+        <v>1.25</v>
       </c>
       <c r="AE8" t="n">
-        <v>17.36</v>
+        <v>1.85</v>
       </c>
       <c r="AF8" t="n">
-        <v>17.01</v>
+        <v>1.75</v>
       </c>
       <c r="AG8" t="n">
-        <v>17.02</v>
+        <v>1.67</v>
       </c>
       <c r="AH8" t="n">
-        <v>16.32</v>
+        <v>0.55</v>
       </c>
       <c r="AI8" t="n">
-        <v>17.72</v>
+        <v>5.74</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16.8</v>
+        <v>1.06</v>
       </c>
       <c r="AK8" t="n">
-        <v>17.02</v>
+        <v>1.67</v>
       </c>
       <c r="AL8" t="n">
-        <v>17.31</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="9">
@@ -1344,109 +1382,115 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.95</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>0.77</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.46</v>
+      </c>
       <c r="D9" t="n">
-        <v>17.05</v>
+        <v>0.93</v>
       </c>
       <c r="E9" t="n">
-        <v>16.48</v>
+        <v>1.45</v>
       </c>
       <c r="F9" t="n">
-        <v>16.62</v>
+        <v>3.72</v>
       </c>
       <c r="G9" t="n">
-        <v>16.57</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
+        <v>2.93</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.47</v>
+      </c>
       <c r="I9" t="n">
-        <v>16.73</v>
+        <v>3.35</v>
       </c>
       <c r="J9" t="n">
-        <v>16.21</v>
+        <v>2.48</v>
       </c>
       <c r="K9" t="n">
-        <v>16.11</v>
+        <v>1.88</v>
       </c>
       <c r="L9" t="n">
-        <v>17.02</v>
+        <v>0.2</v>
       </c>
       <c r="M9" t="n">
-        <v>16.94</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>17.39</v>
+        <v>1.51</v>
       </c>
       <c r="O9" t="n">
-        <v>17.31</v>
+        <v>1.08</v>
       </c>
       <c r="P9" t="n">
-        <v>17.33</v>
+        <v>1.87</v>
       </c>
       <c r="Q9" t="n">
-        <v>17.13</v>
+        <v>0.92</v>
       </c>
       <c r="R9" t="n">
-        <v>16.75</v>
+        <v>2.36</v>
       </c>
       <c r="S9" t="n">
-        <v>16.69</v>
+        <v>4.51</v>
       </c>
       <c r="T9" t="n">
-        <v>17.82</v>
+        <v>1.21</v>
       </c>
       <c r="U9" t="n">
-        <v>17.3</v>
+        <v>2.51</v>
       </c>
       <c r="V9" t="n">
-        <v>17</v>
+        <v>2.01</v>
       </c>
       <c r="W9" t="n">
-        <v>17.39</v>
+        <v>1.67</v>
       </c>
       <c r="X9" t="n">
-        <v>17.48</v>
+        <v>2.65</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.09</v>
-      </c>
-      <c r="Z9" t="inlineStr"/>
+        <v>0.86</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.92</v>
+      </c>
       <c r="AA9" t="n">
-        <v>18.06</v>
+        <v>0.93</v>
       </c>
       <c r="AB9" t="n">
-        <v>17.38</v>
+        <v>2.26</v>
       </c>
       <c r="AC9" t="n">
-        <v>17.69</v>
+        <v>0.72</v>
       </c>
       <c r="AD9" t="n">
-        <v>17.55</v>
+        <v>1.18</v>
       </c>
       <c r="AE9" t="n">
-        <v>17.86</v>
+        <v>1.74</v>
       </c>
       <c r="AF9" t="n">
-        <v>17.11</v>
+        <v>1.72</v>
       </c>
       <c r="AG9" t="n">
-        <v>17.09</v>
+        <v>1.49</v>
       </c>
       <c r="AH9" t="n">
-        <v>16.11</v>
+        <v>0.2</v>
       </c>
       <c r="AI9" t="n">
-        <v>18.06</v>
+        <v>4.51</v>
       </c>
       <c r="AJ9" t="n">
-        <v>16.74</v>
+        <v>0.93</v>
       </c>
       <c r="AK9" t="n">
-        <v>17.09</v>
+        <v>1.49</v>
       </c>
       <c r="AL9" t="n">
-        <v>17.39</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="10">
@@ -1454,107 +1498,115 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.42</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>3.88</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.27</v>
+      </c>
       <c r="D10" t="n">
-        <v>16.76</v>
+        <v>2.84</v>
       </c>
       <c r="E10" t="n">
-        <v>17.21</v>
+        <v>2.71</v>
       </c>
       <c r="F10" t="n">
-        <v>17.52</v>
+        <v>2.66</v>
       </c>
       <c r="G10" t="n">
-        <v>16.93</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
+        <v>1.65</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.65</v>
+      </c>
       <c r="I10" t="n">
-        <v>16.85</v>
+        <v>3.07</v>
       </c>
       <c r="J10" t="n">
-        <v>15.59</v>
+        <v>5.11</v>
       </c>
       <c r="K10" t="n">
-        <v>15.84</v>
+        <v>4.21</v>
       </c>
       <c r="L10" t="n">
-        <v>16.52</v>
+        <v>4.27</v>
       </c>
       <c r="M10" t="n">
-        <v>17.12</v>
+        <v>1.93</v>
       </c>
       <c r="N10" t="n">
-        <v>16.98</v>
+        <v>2.63</v>
       </c>
       <c r="O10" t="n">
-        <v>17.89</v>
+        <v>3.26</v>
       </c>
       <c r="P10" t="n">
-        <v>17.77</v>
+        <v>2.44</v>
       </c>
       <c r="Q10" t="n">
-        <v>16.57</v>
+        <v>1.96</v>
       </c>
       <c r="R10" t="n">
-        <v>17.25</v>
-      </c>
-      <c r="S10" t="inlineStr"/>
+        <v>1.2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.08</v>
+      </c>
       <c r="T10" t="n">
-        <v>17.89</v>
+        <v>2.12</v>
       </c>
       <c r="U10" t="n">
-        <v>16.98</v>
+        <v>4.13</v>
       </c>
       <c r="V10" t="n">
-        <v>16.76</v>
+        <v>2.64</v>
       </c>
       <c r="W10" t="n">
-        <v>17.2</v>
+        <v>2.23</v>
       </c>
       <c r="X10" t="n">
-        <v>17.78</v>
+        <v>1.95</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.74</v>
-      </c>
-      <c r="Z10" t="inlineStr"/>
+        <v>1.43</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.55</v>
+      </c>
       <c r="AA10" t="n">
-        <v>17.81</v>
+        <v>2.31</v>
       </c>
       <c r="AB10" t="n">
-        <v>17.93</v>
+        <v>1.22</v>
       </c>
       <c r="AC10" t="n">
-        <v>17.54</v>
+        <v>2.27</v>
       </c>
       <c r="AD10" t="n">
-        <v>17.94</v>
+        <v>2.28</v>
       </c>
       <c r="AE10" t="n">
-        <v>17.42</v>
+        <v>3.32</v>
       </c>
       <c r="AF10" t="n">
-        <v>17.2</v>
+        <v>2.64</v>
       </c>
       <c r="AG10" t="n">
-        <v>17.23</v>
+        <v>2.53</v>
       </c>
       <c r="AH10" t="n">
-        <v>15.59</v>
+        <v>0.55</v>
       </c>
       <c r="AI10" t="n">
-        <v>17.94</v>
+        <v>5.11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>16.87</v>
+        <v>2</v>
       </c>
       <c r="AK10" t="n">
-        <v>17.23</v>
+        <v>2.53</v>
       </c>
       <c r="AL10" t="n">
-        <v>17.77</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="11">
@@ -1562,105 +1614,115 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.81</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>4.43</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.71</v>
+      </c>
       <c r="D11" t="n">
-        <v>16.57</v>
+        <v>3.44</v>
       </c>
       <c r="E11" t="n">
-        <v>16.42</v>
+        <v>7.1</v>
       </c>
       <c r="F11" t="n">
-        <v>16.99</v>
+        <v>4.96</v>
       </c>
       <c r="G11" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
+        <v>7.89</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.42</v>
+      </c>
       <c r="I11" t="n">
-        <v>17</v>
+        <v>6.16</v>
       </c>
       <c r="J11" t="n">
-        <v>16.26</v>
+        <v>5.24</v>
       </c>
       <c r="K11" t="n">
-        <v>16.36</v>
+        <v>4.77</v>
       </c>
       <c r="L11" t="n">
-        <v>17.19</v>
+        <v>3.56</v>
       </c>
       <c r="M11" t="n">
-        <v>16.82</v>
+        <v>4.28</v>
       </c>
       <c r="N11" t="n">
-        <v>17.01</v>
+        <v>7.99</v>
       </c>
       <c r="O11" t="n">
-        <v>16.8</v>
+        <v>6.7</v>
       </c>
       <c r="P11" t="n">
-        <v>16.6</v>
+        <v>7.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>17.13</v>
+        <v>5.85</v>
       </c>
       <c r="R11" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="S11" t="inlineStr"/>
+        <v>9.470000000000001</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5.02</v>
+      </c>
       <c r="T11" t="n">
-        <v>17.41</v>
+        <v>5.34</v>
       </c>
       <c r="U11" t="n">
-        <v>17.01</v>
+        <v>5.85</v>
       </c>
       <c r="V11" t="n">
-        <v>16.07</v>
+        <v>7.3</v>
       </c>
       <c r="W11" t="n">
-        <v>17.1</v>
+        <v>3.63</v>
       </c>
       <c r="X11" t="n">
-        <v>17.42</v>
-      </c>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
+        <v>5.89</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>4.41</v>
+      </c>
       <c r="AA11" t="n">
-        <v>17.62</v>
+        <v>7.77</v>
       </c>
       <c r="AB11" t="n">
-        <v>17.57</v>
+        <v>3.52</v>
       </c>
       <c r="AC11" t="n">
-        <v>17.67</v>
+        <v>5.93</v>
       </c>
       <c r="AD11" t="n">
-        <v>17.22</v>
+        <v>3.83</v>
       </c>
       <c r="AE11" t="n">
-        <v>18.06</v>
+        <v>2.36</v>
       </c>
       <c r="AF11" t="n">
-        <v>16.98</v>
+        <v>5.31</v>
       </c>
       <c r="AG11" t="n">
-        <v>17.01</v>
+        <v>5.13</v>
       </c>
       <c r="AH11" t="n">
-        <v>16.07</v>
+        <v>1.71</v>
       </c>
       <c r="AI11" t="n">
-        <v>18.06</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="AJ11" t="n">
-        <v>16.6</v>
+        <v>3.91</v>
       </c>
       <c r="AK11" t="n">
-        <v>17.01</v>
+        <v>5.13</v>
       </c>
       <c r="AL11" t="n">
-        <v>17.22</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="12">
@@ -1668,107 +1730,115 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.41</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>5.8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.78</v>
+      </c>
       <c r="D12" t="n">
-        <v>16.58</v>
+        <v>6.96</v>
       </c>
       <c r="E12" t="n">
-        <v>16.35</v>
+        <v>6.65</v>
       </c>
       <c r="F12" t="n">
-        <v>16.76</v>
+        <v>3.47</v>
       </c>
       <c r="G12" t="n">
-        <v>17.07</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
+        <v>4.8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6.05</v>
+      </c>
       <c r="I12" t="n">
-        <v>16.3</v>
+        <v>4.66</v>
       </c>
       <c r="J12" t="n">
-        <v>16.24</v>
+        <v>3.79</v>
       </c>
       <c r="K12" t="n">
-        <v>16.13</v>
+        <v>3.54</v>
       </c>
       <c r="L12" t="n">
-        <v>16.59</v>
+        <v>4.56</v>
       </c>
       <c r="M12" t="n">
-        <v>15.88</v>
+        <v>2.82</v>
       </c>
       <c r="N12" t="n">
-        <v>16.88</v>
+        <v>6.1</v>
       </c>
       <c r="O12" t="n">
-        <v>16.74</v>
+        <v>4.97</v>
       </c>
       <c r="P12" t="n">
-        <v>17.06</v>
+        <v>5.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>17.27</v>
+        <v>6.73</v>
       </c>
       <c r="R12" t="n">
-        <v>16.95</v>
+        <v>4.8</v>
       </c>
       <c r="S12" t="n">
-        <v>16.84</v>
+        <v>7.03</v>
       </c>
       <c r="T12" t="n">
-        <v>17.7</v>
+        <v>4.69</v>
       </c>
       <c r="U12" t="n">
-        <v>16.49</v>
+        <v>6.73</v>
       </c>
       <c r="V12" t="n">
-        <v>16.64</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="W12" t="n">
-        <v>17.22</v>
+        <v>2.71</v>
       </c>
       <c r="X12" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
+        <v>5.4</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>3.43</v>
+      </c>
       <c r="AA12" t="n">
-        <v>17.39</v>
+        <v>7.45</v>
       </c>
       <c r="AB12" t="n">
-        <v>17.36</v>
+        <v>4.45</v>
       </c>
       <c r="AC12" t="n">
-        <v>17.63</v>
+        <v>6.54</v>
       </c>
       <c r="AD12" t="n">
-        <v>17.9</v>
+        <v>4.87</v>
       </c>
       <c r="AE12" t="n">
-        <v>17.39</v>
+        <v>8.34</v>
       </c>
       <c r="AF12" t="n">
-        <v>16.88</v>
+        <v>5.54</v>
       </c>
       <c r="AG12" t="n">
-        <v>16.86</v>
+        <v>5.56</v>
       </c>
       <c r="AH12" t="n">
-        <v>15.88</v>
+        <v>2.71</v>
       </c>
       <c r="AI12" t="n">
-        <v>17.9</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="AJ12" t="n">
-        <v>16.51</v>
+        <v>4.59</v>
       </c>
       <c r="AK12" t="n">
-        <v>16.86</v>
+        <v>5.56</v>
       </c>
       <c r="AL12" t="n">
-        <v>17.26</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="13">
@@ -1776,105 +1846,115 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.11</v>
+        <v>3.68</v>
       </c>
       <c r="C13" t="n">
-        <v>16.57</v>
+        <v>4.23</v>
       </c>
       <c r="D13" t="n">
-        <v>16.64</v>
+        <v>2.89</v>
       </c>
       <c r="E13" t="n">
-        <v>16.65</v>
+        <v>2.2</v>
       </c>
       <c r="F13" t="n">
-        <v>16.34</v>
+        <v>4.19</v>
       </c>
       <c r="G13" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+        <v>3.44</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.64</v>
+      </c>
       <c r="J13" t="n">
-        <v>16.43</v>
+        <v>5.19</v>
       </c>
       <c r="K13" t="n">
-        <v>15.75</v>
+        <v>2.34</v>
       </c>
       <c r="L13" t="n">
-        <v>16.76</v>
+        <v>4.04</v>
       </c>
       <c r="M13" t="n">
-        <v>18.51</v>
+        <v>4.02</v>
       </c>
       <c r="N13" t="n">
-        <v>17.31</v>
+        <v>2.3</v>
       </c>
       <c r="O13" t="n">
-        <v>17.03</v>
+        <v>2.58</v>
       </c>
       <c r="P13" t="n">
-        <v>16.03</v>
+        <v>4.88</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.76</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
+        <v>3.37</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3.75</v>
+      </c>
       <c r="S13" t="n">
-        <v>16.44</v>
+        <v>2.4</v>
       </c>
       <c r="T13" t="n">
-        <v>17.57</v>
+        <v>3.47</v>
       </c>
       <c r="U13" t="n">
-        <v>16.11</v>
+        <v>3.52</v>
       </c>
       <c r="V13" t="n">
-        <v>16.68</v>
+        <v>6.91</v>
       </c>
       <c r="W13" t="n">
-        <v>16.55</v>
+        <v>1.72</v>
       </c>
       <c r="X13" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
+        <v>3.2</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.76</v>
+      </c>
       <c r="AA13" t="n">
-        <v>17.04</v>
+        <v>4.62</v>
       </c>
       <c r="AB13" t="n">
-        <v>17.28</v>
+        <v>1.88</v>
       </c>
       <c r="AC13" t="n">
-        <v>16.94</v>
+        <v>0.96</v>
       </c>
       <c r="AD13" t="n">
-        <v>17.7</v>
+        <v>2.62</v>
       </c>
       <c r="AE13" t="n">
-        <v>17.28</v>
+        <v>3.15</v>
       </c>
       <c r="AF13" t="n">
-        <v>16.86</v>
+        <v>3.26</v>
       </c>
       <c r="AG13" t="n">
-        <v>16.76</v>
+        <v>3.3</v>
       </c>
       <c r="AH13" t="n">
-        <v>15.75</v>
+        <v>0.76</v>
       </c>
       <c r="AI13" t="n">
-        <v>18.51</v>
+        <v>6.91</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16.55</v>
+        <v>2.36</v>
       </c>
       <c r="AK13" t="n">
-        <v>16.76</v>
+        <v>3.3</v>
       </c>
       <c r="AL13" t="n">
-        <v>17.11</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="14">
@@ -1884,113 +1964,115 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17.18</v>
+        <v>3.47</v>
       </c>
       <c r="C14" t="n">
-        <v>17.48</v>
+        <v>3.2</v>
       </c>
       <c r="D14" t="n">
-        <v>16.89</v>
+        <v>3.52</v>
       </c>
       <c r="E14" t="n">
-        <v>16.8</v>
+        <v>4.26</v>
       </c>
       <c r="F14" t="n">
-        <v>17.21</v>
+        <v>3.59</v>
       </c>
       <c r="G14" t="n">
-        <v>16.7</v>
+        <v>3.89</v>
       </c>
       <c r="H14" t="n">
-        <v>17.4</v>
+        <v>3.01</v>
       </c>
       <c r="I14" t="n">
-        <v>17.47</v>
+        <v>3.92</v>
       </c>
       <c r="J14" t="n">
-        <v>16.29</v>
+        <v>4.33</v>
       </c>
       <c r="K14" t="n">
-        <v>16.11</v>
+        <v>3.54</v>
       </c>
       <c r="L14" t="n">
-        <v>16.62</v>
+        <v>2.61</v>
       </c>
       <c r="M14" t="n">
-        <v>16.98</v>
+        <v>3.39</v>
       </c>
       <c r="N14" t="n">
-        <v>17.24</v>
+        <v>3.18</v>
       </c>
       <c r="O14" t="n">
-        <v>17.01</v>
+        <v>3.89</v>
       </c>
       <c r="P14" t="n">
-        <v>17.19</v>
+        <v>3.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>16.94</v>
+        <v>4.63</v>
       </c>
       <c r="R14" t="n">
-        <v>17.01</v>
+        <v>3.5</v>
       </c>
       <c r="S14" t="n">
-        <v>16.8</v>
+        <v>3.99</v>
       </c>
       <c r="T14" t="n">
-        <v>17.51</v>
+        <v>3.4</v>
       </c>
       <c r="U14" t="n">
-        <v>17.5</v>
+        <v>4.53</v>
       </c>
       <c r="V14" t="n">
-        <v>16.81</v>
+        <v>5.37</v>
       </c>
       <c r="W14" t="n">
-        <v>17.09</v>
+        <v>3.54</v>
       </c>
       <c r="X14" t="n">
-        <v>17.56</v>
+        <v>3.71</v>
       </c>
       <c r="Y14" t="n">
-        <v>17.64</v>
-      </c>
-      <c r="Z14" t="inlineStr"/>
+        <v>3.18</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2.36</v>
+      </c>
       <c r="AA14" t="n">
-        <v>18.07</v>
+        <v>3.66</v>
       </c>
       <c r="AB14" t="n">
-        <v>17.48</v>
+        <v>3.49</v>
       </c>
       <c r="AC14" t="n">
-        <v>17.34</v>
+        <v>3.28</v>
       </c>
       <c r="AD14" t="n">
-        <v>17.81</v>
+        <v>3.55</v>
       </c>
       <c r="AE14" t="n">
-        <v>17.9</v>
+        <v>3.22</v>
       </c>
       <c r="AF14" t="n">
-        <v>17.17</v>
+        <v>3.63</v>
       </c>
       <c r="AG14" t="n">
-        <v>17.19</v>
+        <v>3.54</v>
       </c>
       <c r="AH14" t="n">
-        <v>16.11</v>
+        <v>2.36</v>
       </c>
       <c r="AI14" t="n">
-        <v>18.07</v>
+        <v>5.37</v>
       </c>
       <c r="AJ14" t="n">
-        <v>16.89</v>
+        <v>3.31</v>
       </c>
       <c r="AK14" t="n">
-        <v>17.19</v>
+        <v>3.54</v>
       </c>
       <c r="AL14" t="n">
-        <v>17.48</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="15">
@@ -2000,113 +2082,115 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.23</v>
+        <v>3.78</v>
       </c>
       <c r="C15" t="n">
-        <v>17.48</v>
+        <v>2.8</v>
       </c>
       <c r="D15" t="n">
-        <v>16.77</v>
+        <v>3.39</v>
       </c>
       <c r="E15" t="n">
-        <v>16.72</v>
+        <v>3.58</v>
       </c>
       <c r="F15" t="n">
-        <v>17.23</v>
+        <v>3.45</v>
       </c>
       <c r="G15" t="n">
-        <v>16.79</v>
+        <v>3.43</v>
       </c>
       <c r="H15" t="n">
-        <v>17.53</v>
+        <v>3.23</v>
       </c>
       <c r="I15" t="n">
-        <v>17.45</v>
+        <v>3.99</v>
       </c>
       <c r="J15" t="n">
-        <v>16.39</v>
+        <v>4.12</v>
       </c>
       <c r="K15" t="n">
-        <v>16.11</v>
+        <v>3.59</v>
       </c>
       <c r="L15" t="n">
-        <v>16.58</v>
+        <v>2.52</v>
       </c>
       <c r="M15" t="n">
-        <v>16.98</v>
+        <v>3.15</v>
       </c>
       <c r="N15" t="n">
-        <v>17.22</v>
+        <v>2.47</v>
       </c>
       <c r="O15" t="n">
-        <v>16.89</v>
+        <v>3.7</v>
       </c>
       <c r="P15" t="n">
-        <v>17.38</v>
+        <v>3.69</v>
       </c>
       <c r="Q15" t="n">
-        <v>16.98</v>
+        <v>4.61</v>
       </c>
       <c r="R15" t="n">
-        <v>16.97</v>
+        <v>3.16</v>
       </c>
       <c r="S15" t="n">
-        <v>16.84</v>
+        <v>3.38</v>
       </c>
       <c r="T15" t="n">
-        <v>17.61</v>
+        <v>3.46</v>
       </c>
       <c r="U15" t="n">
-        <v>17.3</v>
+        <v>3.87</v>
       </c>
       <c r="V15" t="n">
-        <v>16.8</v>
+        <v>6.09</v>
       </c>
       <c r="W15" t="n">
-        <v>17.15</v>
+        <v>2.68</v>
       </c>
       <c r="X15" t="n">
-        <v>17.63</v>
+        <v>4.03</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.65</v>
-      </c>
-      <c r="Z15" t="inlineStr"/>
+        <v>3.21</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1.86</v>
+      </c>
       <c r="AA15" t="n">
-        <v>17.93</v>
+        <v>3.04</v>
       </c>
       <c r="AB15" t="n">
-        <v>17.39</v>
+        <v>3.46</v>
       </c>
       <c r="AC15" t="n">
-        <v>17.42</v>
+        <v>2.61</v>
       </c>
       <c r="AD15" t="n">
-        <v>17.85</v>
+        <v>3.23</v>
       </c>
       <c r="AE15" t="n">
-        <v>17.84</v>
+        <v>2.83</v>
       </c>
       <c r="AF15" t="n">
-        <v>17.18</v>
+        <v>3.41</v>
       </c>
       <c r="AG15" t="n">
-        <v>17.23</v>
+        <v>3.41</v>
       </c>
       <c r="AH15" t="n">
-        <v>16.11</v>
+        <v>1.86</v>
       </c>
       <c r="AI15" t="n">
-        <v>17.93</v>
+        <v>6.09</v>
       </c>
       <c r="AJ15" t="n">
-        <v>16.84</v>
+        <v>3.06</v>
       </c>
       <c r="AK15" t="n">
-        <v>17.23</v>
+        <v>3.41</v>
       </c>
       <c r="AL15" t="n">
-        <v>17.48</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="16">
@@ -2116,113 +2200,115 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.41</v>
+        <v>0.77</v>
       </c>
       <c r="C16" t="n">
-        <v>16.57</v>
+        <v>1.11</v>
       </c>
       <c r="D16" t="n">
-        <v>16.52</v>
+        <v>0.76</v>
       </c>
       <c r="E16" t="n">
-        <v>16.35</v>
+        <v>0.72</v>
       </c>
       <c r="F16" t="n">
-        <v>16.34</v>
+        <v>0.26</v>
       </c>
       <c r="G16" t="n">
-        <v>16.26</v>
+        <v>1.65</v>
       </c>
       <c r="H16" t="n">
-        <v>16.68</v>
+        <v>0.47</v>
       </c>
       <c r="I16" t="n">
-        <v>16.3</v>
+        <v>1.63</v>
       </c>
       <c r="J16" t="n">
-        <v>15.59</v>
+        <v>1.74</v>
       </c>
       <c r="K16" t="n">
-        <v>15.75</v>
+        <v>1.03</v>
       </c>
       <c r="L16" t="n">
-        <v>15.39</v>
+        <v>0.2</v>
       </c>
       <c r="M16" t="n">
-        <v>15.88</v>
+        <v>0.88</v>
       </c>
       <c r="N16" t="n">
-        <v>16.81</v>
+        <v>0.96</v>
       </c>
       <c r="O16" t="n">
-        <v>16.6</v>
+        <v>0.84</v>
       </c>
       <c r="P16" t="n">
-        <v>16.03</v>
+        <v>1.02</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.49</v>
+        <v>0.78</v>
       </c>
       <c r="R16" t="n">
-        <v>16.59</v>
+        <v>0.62</v>
       </c>
       <c r="S16" t="n">
-        <v>16.42</v>
+        <v>1.99</v>
       </c>
       <c r="T16" t="n">
-        <v>16.77</v>
+        <v>0.55</v>
       </c>
       <c r="U16" t="n">
-        <v>16.11</v>
+        <v>0.6</v>
       </c>
       <c r="V16" t="n">
-        <v>16.07</v>
+        <v>1.91</v>
       </c>
       <c r="W16" t="n">
-        <v>16.47</v>
+        <v>1.39</v>
       </c>
       <c r="X16" t="n">
-        <v>16.87</v>
+        <v>0.84</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.09</v>
-      </c>
-      <c r="Z16" t="inlineStr"/>
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.55</v>
+      </c>
       <c r="AA16" t="n">
-        <v>17.04</v>
+        <v>0.93</v>
       </c>
       <c r="AB16" t="n">
-        <v>16.92</v>
+        <v>0.9</v>
       </c>
       <c r="AC16" t="n">
-        <v>16.72</v>
+        <v>0.72</v>
       </c>
       <c r="AD16" t="n">
-        <v>17.22</v>
+        <v>0.8</v>
       </c>
       <c r="AE16" t="n">
-        <v>17.28</v>
+        <v>1.62</v>
       </c>
       <c r="AF16" t="n">
-        <v>16.47</v>
+        <v>0.96</v>
       </c>
       <c r="AG16" t="n">
-        <v>16.49</v>
+        <v>0.84</v>
       </c>
       <c r="AH16" t="n">
-        <v>15.39</v>
+        <v>0.2</v>
       </c>
       <c r="AI16" t="n">
-        <v>17.28</v>
+        <v>1.99</v>
       </c>
       <c r="AJ16" t="n">
-        <v>16.26</v>
+        <v>0.64</v>
       </c>
       <c r="AK16" t="n">
-        <v>16.49</v>
+        <v>0.84</v>
       </c>
       <c r="AL16" t="n">
-        <v>16.77</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="17">
@@ -2232,113 +2318,115 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17.67</v>
+        <v>5.9</v>
       </c>
       <c r="C17" t="n">
-        <v>18.53</v>
+        <v>6.78</v>
       </c>
       <c r="D17" t="n">
-        <v>17.77</v>
+        <v>6.96</v>
       </c>
       <c r="E17" t="n">
-        <v>17.52</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>17.9</v>
+        <v>7.66</v>
       </c>
       <c r="G17" t="n">
-        <v>17.07</v>
+        <v>7.89</v>
       </c>
       <c r="H17" t="n">
-        <v>18.02</v>
+        <v>6.05</v>
       </c>
       <c r="I17" t="n">
-        <v>18.42</v>
+        <v>6.36</v>
       </c>
       <c r="J17" t="n">
-        <v>16.66</v>
+        <v>8.02</v>
       </c>
       <c r="K17" t="n">
-        <v>16.53</v>
+        <v>6.89</v>
       </c>
       <c r="L17" t="n">
-        <v>17.19</v>
+        <v>4.56</v>
       </c>
       <c r="M17" t="n">
-        <v>18.51</v>
+        <v>7.04</v>
       </c>
       <c r="N17" t="n">
-        <v>17.81</v>
+        <v>7.99</v>
       </c>
       <c r="O17" t="n">
-        <v>17.89</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="P17" t="n">
-        <v>17.77</v>
+        <v>7.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>17.35</v>
+        <v>9.5</v>
       </c>
       <c r="R17" t="n">
-        <v>17.47</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="S17" t="n">
-        <v>17.1</v>
+        <v>7.03</v>
       </c>
       <c r="T17" t="n">
-        <v>17.89</v>
+        <v>7.22</v>
       </c>
       <c r="U17" t="n">
-        <v>18.89</v>
+        <v>8.31</v>
       </c>
       <c r="V17" t="n">
-        <v>17.31</v>
+        <v>10.18</v>
       </c>
       <c r="W17" t="n">
-        <v>17.58</v>
+        <v>10.9</v>
       </c>
       <c r="X17" t="n">
-        <v>18.37</v>
+        <v>6.11</v>
       </c>
       <c r="Y17" t="n">
-        <v>18.01</v>
-      </c>
-      <c r="Z17" t="inlineStr"/>
+        <v>7.42</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>5.08</v>
+      </c>
       <c r="AA17" t="n">
-        <v>19.33</v>
+        <v>7.77</v>
       </c>
       <c r="AB17" t="n">
-        <v>17.93</v>
+        <v>7.27</v>
       </c>
       <c r="AC17" t="n">
-        <v>17.86</v>
+        <v>6.62</v>
       </c>
       <c r="AD17" t="n">
-        <v>18.29</v>
+        <v>8.82</v>
       </c>
       <c r="AE17" t="n">
-        <v>18.74</v>
+        <v>8.34</v>
       </c>
       <c r="AF17" t="n">
-        <v>17.84</v>
+        <v>7.55</v>
       </c>
       <c r="AG17" t="n">
-        <v>17.86</v>
+        <v>7.36</v>
       </c>
       <c r="AH17" t="n">
-        <v>16.53</v>
+        <v>4.56</v>
       </c>
       <c r="AI17" t="n">
-        <v>19.33</v>
+        <v>10.9</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17.47</v>
+        <v>6.81</v>
       </c>
       <c r="AK17" t="n">
-        <v>17.86</v>
+        <v>7.36</v>
       </c>
       <c r="AL17" t="n">
-        <v>18.29</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="18">
@@ -2348,115 +2436,115 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>171.81</v>
+        <v>41.65</v>
       </c>
       <c r="C18" t="n">
-        <v>122.35</v>
+        <v>38.45</v>
       </c>
       <c r="D18" t="n">
-        <v>202.65</v>
+        <v>42.21</v>
       </c>
       <c r="E18" t="n">
-        <v>201.61</v>
+        <v>51.12</v>
       </c>
       <c r="F18" t="n">
-        <v>206.57</v>
+        <v>43.13</v>
       </c>
       <c r="G18" t="n">
-        <v>200.34</v>
+        <v>46.66</v>
       </c>
       <c r="H18" t="n">
-        <v>104.42</v>
+        <v>36.12</v>
       </c>
       <c r="I18" t="n">
-        <v>192.12</v>
+        <v>47.09</v>
       </c>
       <c r="J18" t="n">
-        <v>179.2</v>
+        <v>51.95</v>
       </c>
       <c r="K18" t="n">
-        <v>193.27</v>
+        <v>42.48</v>
       </c>
       <c r="L18" t="n">
-        <v>199.47</v>
+        <v>31.32</v>
       </c>
       <c r="M18" t="n">
-        <v>203.79</v>
+        <v>40.67</v>
       </c>
       <c r="N18" t="n">
-        <v>206.89</v>
+        <v>38.1</v>
       </c>
       <c r="O18" t="n">
-        <v>204.14</v>
+        <v>46.63</v>
       </c>
       <c r="P18" t="n">
-        <v>206.34</v>
+        <v>45.64</v>
       </c>
       <c r="Q18" t="n">
-        <v>203.31</v>
+        <v>55.57</v>
       </c>
       <c r="R18" t="n">
-        <v>170.05</v>
+        <v>41.95</v>
       </c>
       <c r="S18" t="n">
-        <v>151.17</v>
+        <v>47.9</v>
       </c>
       <c r="T18" t="n">
-        <v>175.13</v>
+        <v>40.83</v>
       </c>
       <c r="U18" t="n">
-        <v>157.47</v>
+        <v>54.4</v>
       </c>
       <c r="V18" t="n">
-        <v>201.69</v>
+        <v>64.44</v>
       </c>
       <c r="W18" t="n">
-        <v>205.03</v>
+        <v>42.46</v>
       </c>
       <c r="X18" t="n">
-        <v>210.7</v>
+        <v>44.47</v>
       </c>
       <c r="Y18" t="n">
-        <v>158.73</v>
+        <v>38.19</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>28.32</v>
       </c>
       <c r="AA18" t="n">
-        <v>216.82</v>
+        <v>43.92</v>
       </c>
       <c r="AB18" t="n">
-        <v>209.75</v>
+        <v>41.86</v>
       </c>
       <c r="AC18" t="n">
-        <v>208.13</v>
+        <v>39.36</v>
       </c>
       <c r="AD18" t="n">
-        <v>213.69</v>
+        <v>42.63</v>
       </c>
       <c r="AE18" t="n">
-        <v>214.78</v>
+        <v>38.61</v>
       </c>
       <c r="AF18" t="n">
-        <v>183.05</v>
+        <v>43.6</v>
       </c>
       <c r="AG18" t="n">
-        <v>201.65</v>
+        <v>42.47</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>28.32</v>
       </c>
       <c r="AI18" t="n">
-        <v>216.82</v>
+        <v>64.44</v>
       </c>
       <c r="AJ18" t="n">
-        <v>172.64</v>
+        <v>39.68</v>
       </c>
       <c r="AK18" t="n">
-        <v>201.65</v>
+        <v>42.47</v>
       </c>
       <c r="AL18" t="n">
-        <v>206.51</v>
+        <v>46.65</v>
       </c>
     </row>
     <row r="19">
@@ -2466,113 +2554,115 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.99</v>
+        <v>1.95</v>
       </c>
       <c r="C19" t="n">
-        <v>17.14</v>
+        <v>1.65</v>
       </c>
       <c r="D19" t="n">
-        <v>16.63</v>
+        <v>2.6</v>
       </c>
       <c r="E19" t="n">
-        <v>16.48</v>
+        <v>2.48</v>
       </c>
       <c r="F19" t="n">
-        <v>16.74</v>
+        <v>2.74</v>
       </c>
       <c r="G19" t="n">
-        <v>16.4</v>
+        <v>2.9</v>
       </c>
       <c r="H19" t="n">
-        <v>16.99</v>
+        <v>1.92</v>
       </c>
       <c r="I19" t="n">
-        <v>16.86</v>
+        <v>2.7</v>
       </c>
       <c r="J19" t="n">
-        <v>16.22</v>
+        <v>3.05</v>
       </c>
       <c r="K19" t="n">
-        <v>15.88</v>
+        <v>2.29</v>
       </c>
       <c r="L19" t="n">
-        <v>16.48</v>
+        <v>1.71</v>
       </c>
       <c r="M19" t="n">
-        <v>16.72</v>
+        <v>1.9</v>
       </c>
       <c r="N19" t="n">
-        <v>17.01</v>
+        <v>1.6</v>
       </c>
       <c r="O19" t="n">
-        <v>16.72</v>
+        <v>2.52</v>
       </c>
       <c r="P19" t="n">
-        <v>16.95</v>
+        <v>2.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.74</v>
+        <v>1.73</v>
       </c>
       <c r="R19" t="n">
-        <v>16.83</v>
+        <v>2.16</v>
       </c>
       <c r="S19" t="n">
-        <v>16.69</v>
+        <v>3.03</v>
       </c>
       <c r="T19" t="n">
-        <v>17.43</v>
+        <v>2.53</v>
       </c>
       <c r="U19" t="n">
-        <v>16.98</v>
+        <v>3.12</v>
       </c>
       <c r="V19" t="n">
-        <v>16.67</v>
+        <v>2.71</v>
       </c>
       <c r="W19" t="n">
-        <v>16.91</v>
+        <v>1.9</v>
       </c>
       <c r="X19" t="n">
-        <v>17.34</v>
+        <v>1.86</v>
       </c>
       <c r="Y19" t="n">
-        <v>17.58</v>
-      </c>
-      <c r="Z19" t="inlineStr"/>
+        <v>1.29</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.91</v>
+      </c>
       <c r="AA19" t="n">
-        <v>17.58</v>
+        <v>1.86</v>
       </c>
       <c r="AB19" t="n">
-        <v>17.36</v>
+        <v>2.16</v>
       </c>
       <c r="AC19" t="n">
-        <v>17.03</v>
+        <v>0.99</v>
       </c>
       <c r="AD19" t="n">
-        <v>17.65</v>
+        <v>1.25</v>
       </c>
       <c r="AE19" t="n">
-        <v>17.41</v>
+        <v>2.03</v>
       </c>
       <c r="AF19" t="n">
-        <v>16.91</v>
+        <v>2.13</v>
       </c>
       <c r="AG19" t="n">
-        <v>16.91</v>
+        <v>2.09</v>
       </c>
       <c r="AH19" t="n">
-        <v>15.88</v>
+        <v>0.91</v>
       </c>
       <c r="AI19" t="n">
-        <v>17.65</v>
+        <v>3.12</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16.69</v>
+        <v>1.76</v>
       </c>
       <c r="AK19" t="n">
-        <v>16.91</v>
+        <v>2.09</v>
       </c>
       <c r="AL19" t="n">
-        <v>17.14</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="20">
@@ -2582,113 +2672,115 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17.23</v>
+        <v>3.78</v>
       </c>
       <c r="C20" t="n">
-        <v>17.48</v>
+        <v>2.8</v>
       </c>
       <c r="D20" t="n">
-        <v>16.77</v>
+        <v>3.39</v>
       </c>
       <c r="E20" t="n">
-        <v>16.72</v>
+        <v>3.58</v>
       </c>
       <c r="F20" t="n">
-        <v>17.23</v>
+        <v>3.45</v>
       </c>
       <c r="G20" t="n">
-        <v>16.79</v>
+        <v>3.43</v>
       </c>
       <c r="H20" t="n">
-        <v>17.53</v>
+        <v>3.23</v>
       </c>
       <c r="I20" t="n">
-        <v>17.45</v>
+        <v>3.99</v>
       </c>
       <c r="J20" t="n">
-        <v>16.39</v>
+        <v>4.12</v>
       </c>
       <c r="K20" t="n">
-        <v>16.11</v>
+        <v>3.59</v>
       </c>
       <c r="L20" t="n">
-        <v>16.58</v>
+        <v>2.52</v>
       </c>
       <c r="M20" t="n">
-        <v>16.98</v>
+        <v>3.15</v>
       </c>
       <c r="N20" t="n">
-        <v>17.22</v>
+        <v>2.47</v>
       </c>
       <c r="O20" t="n">
-        <v>16.89</v>
+        <v>3.7</v>
       </c>
       <c r="P20" t="n">
-        <v>17.38</v>
+        <v>3.69</v>
       </c>
       <c r="Q20" t="n">
-        <v>16.98</v>
+        <v>4.61</v>
       </c>
       <c r="R20" t="n">
-        <v>16.97</v>
+        <v>3.16</v>
       </c>
       <c r="S20" t="n">
-        <v>16.84</v>
+        <v>3.38</v>
       </c>
       <c r="T20" t="n">
-        <v>17.61</v>
+        <v>3.46</v>
       </c>
       <c r="U20" t="n">
-        <v>17.3</v>
+        <v>3.87</v>
       </c>
       <c r="V20" t="n">
-        <v>16.8</v>
+        <v>6.09</v>
       </c>
       <c r="W20" t="n">
-        <v>17.15</v>
+        <v>2.68</v>
       </c>
       <c r="X20" t="n">
-        <v>17.63</v>
+        <v>4.03</v>
       </c>
       <c r="Y20" t="n">
-        <v>17.65</v>
-      </c>
-      <c r="Z20" t="inlineStr"/>
+        <v>3.21</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.86</v>
+      </c>
       <c r="AA20" t="n">
-        <v>17.93</v>
+        <v>3.04</v>
       </c>
       <c r="AB20" t="n">
-        <v>17.39</v>
+        <v>3.46</v>
       </c>
       <c r="AC20" t="n">
-        <v>17.42</v>
+        <v>2.61</v>
       </c>
       <c r="AD20" t="n">
-        <v>17.85</v>
+        <v>3.23</v>
       </c>
       <c r="AE20" t="n">
-        <v>17.84</v>
+        <v>2.83</v>
       </c>
       <c r="AF20" t="n">
-        <v>17.18</v>
+        <v>3.41</v>
       </c>
       <c r="AG20" t="n">
-        <v>17.23</v>
+        <v>3.41</v>
       </c>
       <c r="AH20" t="n">
-        <v>16.11</v>
+        <v>1.86</v>
       </c>
       <c r="AI20" t="n">
-        <v>17.93</v>
+        <v>6.09</v>
       </c>
       <c r="AJ20" t="n">
-        <v>16.84</v>
+        <v>3.06</v>
       </c>
       <c r="AK20" t="n">
-        <v>17.23</v>
+        <v>3.41</v>
       </c>
       <c r="AL20" t="n">
-        <v>17.48</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="21">
@@ -2698,113 +2790,115 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17.43</v>
+        <v>5.02</v>
       </c>
       <c r="C21" t="n">
-        <v>17.74</v>
+        <v>4.26</v>
       </c>
       <c r="D21" t="n">
-        <v>17.1</v>
+        <v>4.7</v>
       </c>
       <c r="E21" t="n">
-        <v>17.1</v>
+        <v>5.96</v>
       </c>
       <c r="F21" t="n">
-        <v>17.69</v>
+        <v>4.25</v>
       </c>
       <c r="G21" t="n">
-        <v>16.95</v>
+        <v>4.76</v>
       </c>
       <c r="H21" t="n">
-        <v>17.77</v>
+        <v>3.83</v>
       </c>
       <c r="I21" t="n">
-        <v>18.23</v>
+        <v>4.84</v>
       </c>
       <c r="J21" t="n">
-        <v>16.42</v>
+        <v>5.2</v>
       </c>
       <c r="K21" t="n">
-        <v>16.32</v>
+        <v>4.32</v>
       </c>
       <c r="L21" t="n">
-        <v>17.04</v>
+        <v>3.68</v>
       </c>
       <c r="M21" t="n">
-        <v>17.21</v>
+        <v>4.52</v>
       </c>
       <c r="N21" t="n">
-        <v>17.39</v>
+        <v>4.07</v>
       </c>
       <c r="O21" t="n">
-        <v>17.1</v>
+        <v>5.09</v>
       </c>
       <c r="P21" t="n">
-        <v>17.5</v>
+        <v>5.04</v>
       </c>
       <c r="Q21" t="n">
-        <v>17.14</v>
+        <v>7</v>
       </c>
       <c r="R21" t="n">
-        <v>17.19</v>
+        <v>4.38</v>
       </c>
       <c r="S21" t="n">
-        <v>16.97</v>
+        <v>4.75</v>
       </c>
       <c r="T21" t="n">
-        <v>17.72</v>
+        <v>3.98</v>
       </c>
       <c r="U21" t="n">
-        <v>18.28</v>
+        <v>6.07</v>
       </c>
       <c r="V21" t="n">
-        <v>17.03</v>
+        <v>7.01</v>
       </c>
       <c r="W21" t="n">
-        <v>17.31</v>
+        <v>3.82</v>
       </c>
       <c r="X21" t="n">
-        <v>17.77</v>
+        <v>5.52</v>
       </c>
       <c r="Y21" t="n">
-        <v>17.74</v>
-      </c>
-      <c r="Z21" t="inlineStr"/>
+        <v>4.58</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>3.68</v>
+      </c>
       <c r="AA21" t="n">
-        <v>18.56</v>
+        <v>5.01</v>
       </c>
       <c r="AB21" t="n">
-        <v>17.72</v>
+        <v>4.53</v>
       </c>
       <c r="AC21" t="n">
-        <v>17.64</v>
+        <v>6.01</v>
       </c>
       <c r="AD21" t="n">
-        <v>18.01</v>
+        <v>4.52</v>
       </c>
       <c r="AE21" t="n">
-        <v>18.21</v>
+        <v>3.42</v>
       </c>
       <c r="AF21" t="n">
-        <v>17.46</v>
+        <v>4.79</v>
       </c>
       <c r="AG21" t="n">
-        <v>17.43</v>
+        <v>4.64</v>
       </c>
       <c r="AH21" t="n">
-        <v>16.32</v>
+        <v>3.42</v>
       </c>
       <c r="AI21" t="n">
-        <v>18.56</v>
+        <v>7.01</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17.1</v>
+        <v>4.25</v>
       </c>
       <c r="AK21" t="n">
-        <v>17.43</v>
+        <v>4.64</v>
       </c>
       <c r="AL21" t="n">
-        <v>17.74</v>
+        <v>5.08</v>
       </c>
     </row>
   </sheetData>
